--- a/code_book_tabular.xlsx
+++ b/code_book_tabular.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandreunger/Documents/GitHub/ICM_Tradi/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandreunger/Documents/Github/ICM_General/ICM_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018C2DAE-1AC1-574F-B919-0D03117A7092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA533CC3-2E06-AD47-87F7-42D17A37FAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4A3A9246-645A-CC41-97B8-D0C27126EB46}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17400" xr2:uid="{4A3A9246-645A-CC41-97B8-D0C27126EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="198">
   <si>
     <t>Centre (1: Massy, 2: Lariboisiere)</t>
   </si>
@@ -591,19 +591,46 @@
     <t>outcome_revascularisation_90days</t>
   </si>
   <si>
-    <t>N Patients</t>
-  </si>
-  <si>
-    <t>Delai du suivi avant la mort ou dernier contact vivant (months)</t>
-  </si>
-  <si>
-    <t>Volume d'ejection systolique (ml/m2)</t>
-  </si>
-  <si>
     <t>CMR_LGE_ischemic_transmurality</t>
   </si>
   <si>
     <t>CMR_LGE_presence_ischemic_or_midwall</t>
+  </si>
+  <si>
+    <t>OUTCOMES - MACE</t>
+  </si>
+  <si>
+    <t>MACE (0=No; 1=Yes)</t>
+  </si>
+  <si>
+    <t>CV death (0=No; 1=Yes)</t>
+  </si>
+  <si>
+    <t>Nonfatal MI (0=No; 1=Yes)</t>
+  </si>
+  <si>
+    <t>Délai du suivi avant MACE (months)</t>
+  </si>
+  <si>
+    <t>outcome_MACE</t>
+  </si>
+  <si>
+    <t>outcome_MACE_CV_death</t>
+  </si>
+  <si>
+    <t>outcome_MACE_NonFatal_MI</t>
+  </si>
+  <si>
+    <t>outcome_FU_time_MACE</t>
+  </si>
+  <si>
+    <t>N° Patients</t>
+  </si>
+  <si>
+    <t>Délai du suivi avant la mort ou dernier contact vivant (months)</t>
+  </si>
+  <si>
+    <t>Volume d'éjection systolique (ml/m2)</t>
   </si>
 </sst>
 </file>
@@ -713,8 +740,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EC6A35C-E78A-FC48-AB9D-5DCFFBDE54D9}" name="Tableau1" displayName="Tableau1" ref="A1:J57" totalsRowShown="0">
-  <autoFilter ref="A1:J57" xr:uid="{7EC6A35C-E78A-FC48-AB9D-5DCFFBDE54D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EC6A35C-E78A-FC48-AB9D-5DCFFBDE54D9}" name="Tableau1" displayName="Tableau1" ref="A1:J62" totalsRowShown="0">
+  <autoFilter ref="A1:J62" xr:uid="{7EC6A35C-E78A-FC48-AB9D-5DCFFBDE54D9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6FBAC036-54B2-F04F-B02D-002D5CB20857}" name="Colonne1"/>
     <tableColumn id="2" xr3:uid="{EAE27868-F2BD-394E-9850-76BB237C1546}" name="Variable_dataset"/>
@@ -732,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -772,7 +799,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -878,7 +905,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1020,7 +1047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD1179-B15A-0349-9095-CEBC16A76346}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="111" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1084,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1162,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1869,7 +1896,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1970,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
         <v>104</v>
@@ -2036,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
         <v>121</v>
@@ -2431,6 +2458,100 @@
       </c>
       <c r="I57" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
